--- a/server/data/data.xlsx
+++ b/server/data/data.xlsx
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Ridu2</v>
+        <v>Ridu22</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Ajay3</v>
+        <v>Ajay33</v>
       </c>
     </row>
   </sheetData>
